--- a/Outputs/PtX_demand_IT.xlsx
+++ b/Outputs/PtX_demand_IT.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,42 +502,44 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0036479357571302</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.335177568378488e-08</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0016425518663523</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.0001667221954613387</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0036479357571302</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1.335177568378488e-08</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0016425518663523</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -545,7 +547,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.0001667221954613387</v>
+        <v>0.01272982868714951</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -558,16 +560,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.01272982868714951</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -579,7 +579,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -587,18 +587,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.001517032094599047</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0011196654984368</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0.0002953533760394</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -606,24 +612,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.001517032094599047</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0011196654984368</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0.0002953533760394</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -632,17 +632,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.0696096341435164</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0005003989726162</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0038163941181325</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0576730690117931</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0004268491355289</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0250105603733093</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -650,30 +662,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.0696096341435164</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0005003989726162</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0038163941181325</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0576730690117931</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0004268491355289</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0250105603733093</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.002537305967593918</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -682,7 +684,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.002537305967593918</v>
+        <v>0.0006271917820834629</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -694,28 +696,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.01289655088261085</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.0006271917820834629</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.004681529844276429</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07437723539908339</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0005003989726162</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.003816407469908184</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0596109742541848</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0004268491355289</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0250105603733093</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -724,42 +740,44 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0175253502218624</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1.117691096132891e-06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0023865969783612</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.0001819930503096124</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0175253502218624</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>1.117691096132891e-06</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0023865969783612</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -767,7 +785,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.0001819930503096124</v>
+        <v>0.01389581240987423</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -780,28 +798,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.01389581240987423</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>6.421190540173386e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>7.404392471644982e-10</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -809,14 +829,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.002055309681044841</v>
+      </c>
       <c r="F16" t="n">
-        <v>6.421190540173386e-09</v>
+        <v>0.0013764905176361</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>7.404392471644982e-10</v>
+        <v>0.000509620242557</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -824,7 +846,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -832,24 +854,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.002055309681044841</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0013764905176361</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.000509620242557</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -858,17 +874,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0325488940884981</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0008157328785995</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0059254548470925</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0380820558157449</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0005185524227517</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0289957981166524</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -877,29 +905,17 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0325488940884981</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0008157328785995</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0059254548470925</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0380820558157449</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0005185524227517</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0289957981166524</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -918,26 +934,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.01407780546018384</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002055309681044841</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05145074124918714</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0008157328785995</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.005926572538188632</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04097827377710234</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0005185524227517</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0289957981166524</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -946,42 +978,44 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0243107274205465</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.894396379722037e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.003804105309536</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.000195852152862953</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0243107274205465</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.894396379722037e-06</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.003804105309536</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -989,7 +1023,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.000195852152862953</v>
+        <v>0.01495400385687069</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1002,28 +1036,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.01495400385687069</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>6.040957825554191e-08</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.862117208524179e-08</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1031,14 +1067,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.003784923913590072</v>
+      </c>
       <c r="F26" t="n">
-        <v>6.040957825554191e-08</v>
+        <v>0.0002362118286557918</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1.862117208524179e-08</v>
+        <v>0.0001464881637984659</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1046,7 +1084,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1054,24 +1092,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.003784923913590072</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.0002362118286557918</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>6.626646519652098e-10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.003903291544851e-11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.236313569466315e-10</v>
+      </c>
       <c r="I27" t="n">
-        <v>0.0001464881637984659</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>6.339460051053089e-10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.551475162335466e-12</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.488598384219159e-09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1081,28 +1125,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>6.626646519652098e-10</v>
+        <v>0.0067572942771184</v>
       </c>
       <c r="G28" t="n">
-        <v>3.003903291544851e-11</v>
+        <v>0.0014575714346724</v>
       </c>
       <c r="H28" t="n">
-        <v>1.236313569466315e-10</v>
+        <v>0.0093619654826501</v>
       </c>
       <c r="I28" t="n">
-        <v>6.339460051053089e-10</v>
+        <v>0.009816684255846499</v>
       </c>
       <c r="J28" t="n">
-        <v>3.551475162335466e-12</v>
+        <v>0.0006669405310802</v>
       </c>
       <c r="K28" t="n">
-        <v>2.488598384219159e-09</v>
+        <v>0.0409729797312409</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1111,29 +1155,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0067572942771184</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0014575714346724</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.0093619654826501</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.009816684255846499</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0006669405310802</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0409729797312409</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1152,21 +1184,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.01514985600973365</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.003784923913590072</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0313042945985636</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001457571464711433</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.009363860002661178</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01376729698429906</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0006669405346316752</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.04097298221983928</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_IT.xlsx
+++ b/Outputs/PtX_demand_IT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -613,17 +613,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0140462882103178</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.0012192777718049</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -632,29 +636,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.0696096341435164</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0005003989726162</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0038163941181325</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0576730690117931</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0004268491355289</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0250105603733093</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,20 +654,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.002537305967593918</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.0696096341435164</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0005003989726162</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0147095845978992</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0576730690117931</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0004268491355289</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0250105603733093</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -683,170 +685,174 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0006271917820834629</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.6962485521627411</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0035241632245806</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1305643970668376</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3639310136313932</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0025837187153698</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2348176943229761</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0.01289655088261085</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.004681529844276429</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.07437723539908339</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0005003989726162</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.003816407469908184</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0596109742541848</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0004268491355289</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0250105603733093</v>
-      </c>
+        <v>0.002537305967593918</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0175253502218624</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0006271917820834629</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>1.117691096132891e-06</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0023865969783612</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>0.0001819930503096124</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.01289655088261085</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.004681529844276429</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7846720757721423</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0040245621971968</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1452739950165125</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.424761265657383</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0030105678508987</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2598282546962854</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.01389581240987423</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0175253502218624</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1.117691096132891e-06</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0023865969783612</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.0001819930503096124</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>6.421190540173386e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>7.404392471644982e-10</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.002055309681044841</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0013764905176361</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.01389581240987423</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.000509620242557</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -855,17 +861,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>6.421190540173386e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>7.404392471644982e-10</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -873,30 +883,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.002055309681044841</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0325488940884981</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0008157328785995</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0059254548470925</v>
-      </c>
+        <v>0.0013764905176361</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0380820558157449</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0005185524227517</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0289957981166524</v>
-      </c>
+        <v>0.000509620242557</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -905,17 +909,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.007613812729963001</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0012931202386089</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -934,30 +942,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>0.01407780546018384</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.002055309681044841</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.05145074124918714</v>
+        <v>0.0325488940884981</v>
       </c>
       <c r="G21" t="n">
         <v>0.0008157328785995</v>
       </c>
       <c r="H21" t="n">
-        <v>0.005926572538188632</v>
+        <v>0.0191863575218352</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04097827377710234</v>
+        <v>0.0380820558157449</v>
       </c>
       <c r="J21" t="n">
         <v>0.0005185524227517</v>
@@ -969,41 +973,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0243107274205465</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.2148972398498224</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0037886713998633</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.894396379722037e-06</v>
+        <v>0.1236661338043652</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003804105309536</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.1626073741385843</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0022928192073582</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2253953088211194</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.000195852152862953</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1015,16 +1023,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.01495400385687069</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1036,30 +1042,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0.01407780546018384</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.002055309681044841</v>
+      </c>
       <c r="F25" t="n">
-        <v>6.040957825554191e-08</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.2739617938289725</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0046044042784628</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1428536090172965</v>
+      </c>
       <c r="I25" t="n">
-        <v>1.862117208524179e-08</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.2048787681542955</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0028113716301099</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2543911069377718</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1067,16 +1085,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.003784923913590072</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.0002362118286557918</v>
+        <v>0.0243107274205465</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.894396379722037e-06</v>
+      </c>
       <c r="I26" t="n">
-        <v>0.0001464881637984659</v>
+        <v>0.003804105309536</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1084,69 +1102,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.000195852152862953</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>6.626646519652098e-10</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.003903291544851e-11</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.236313569466315e-10</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6.339460051053089e-10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.551475162335466e-12</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.488598384219159e-09</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.01495400385687069</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0067572942771184</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0014575714346724</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0093619654826501</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.009816684255846499</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0006669405310802</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0409729797312409</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1155,17 +1153,21 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>6.040957825554191e-08</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.862117208524179e-08</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1173,47 +1175,207 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.003784923913590072</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0002362118286557918</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.0001464881637984659</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.0004771160107088</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.0004831337696037001</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>6.626646519652098e-10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.003903291544851e-11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6.34537903847718e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.339460051053089e-10</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.551475162335466e-12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.488598384219159e-09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0067572942771184</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0014575714346724</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0267308908885776</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.009816684255846499</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0006669405310802</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0409729797312409</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0388318373000604</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0034172211511031</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.106560884069033</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0289959298007036</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0019735461906695</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2074284198054586</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>0.01514985600973365</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.003784923913590072</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0313042945985636</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.001457571464711433</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.009363860002661178</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.01376729698429906</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0006669405346316752</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.04097298221983928</v>
+      <c r="F37" t="n">
+        <v>0.07061324790933281</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.004874792615814533</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1332936699885282</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04324636055460636</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.002640486725301175</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2484014020252979</v>
       </c>
     </row>
   </sheetData>
